--- a/ResultsOfTheSessionNUnitTestProject/ReportsNUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultsOfTheSessionNUnitTestProject/ReportsNUnitTest/Resources/SessionResultReport.xlsx
@@ -69,6 +69,33 @@
     <t>15.12.2019</t>
   </si>
   <si>
+    <t>Kolev</t>
+  </si>
+  <si>
+    <t>Kolya</t>
+  </si>
+  <si>
+    <t>Nikolaevich</t>
+  </si>
+  <si>
+    <t>Krishina</t>
+  </si>
+  <si>
+    <t>Nastya</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
+    <t>Maximov</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>Maximovich</t>
+  </si>
+  <si>
     <t>Linear algebra and geometry</t>
   </si>
   <si>
@@ -78,57 +105,30 @@
     <t>17.12.2019</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Discrete mathematics</t>
+  </si>
+  <si>
+    <t>19.12.2019</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Discrete mathematics</t>
-  </si>
-  <si>
-    <t>19.12.2019</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Kolev</t>
-  </si>
-  <si>
-    <t>Kolya</t>
-  </si>
-  <si>
-    <t>Nikolaevich</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>Krishina</t>
-  </si>
-  <si>
-    <t>Nastya</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Maximov</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>Maximovich</t>
-  </si>
-  <si>
     <t>Group: GR55</t>
   </si>
   <si>
@@ -147,37 +147,37 @@
     <t>25.12.2019</t>
   </si>
   <si>
+    <t>Malaeva</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Alexandrovna</t>
+  </si>
+  <si>
+    <t>Alekseev</t>
+  </si>
+  <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t>Alexeyevich</t>
+  </si>
+  <si>
+    <t>Ileev</t>
+  </si>
+  <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>Ileevich</t>
+  </si>
+  <si>
     <t>27.12.2019</t>
   </si>
   <si>
     <t>29.12.2019</t>
-  </si>
-  <si>
-    <t>Malaeva</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Alexandrovna</t>
-  </si>
-  <si>
-    <t>Alekseev</t>
-  </si>
-  <si>
-    <t>Alexei</t>
-  </si>
-  <si>
-    <t>Alexeyevich</t>
-  </si>
-  <si>
-    <t>Ileev</t>
-  </si>
-  <si>
-    <t>Ilya</t>
-  </si>
-  <si>
-    <t>Ileevich</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -353,105 +353,105 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -468,13 +468,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -491,370 +491,278 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +779,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -979,105 +887,105 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1094,13 +1002,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -1117,370 +1025,324 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsOfTheSessionNUnitTestProject/ReportsNUnitTest/Resources/SessionResultReport.xlsx
+++ b/ResultsOfTheSessionNUnitTestProject/ReportsNUnitTest/Resources/SessionResultReport.xlsx
@@ -69,6 +69,33 @@
     <t>15.12.2019</t>
   </si>
   <si>
+    <t>Linear algebra and geometry</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>17.12.2019</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Discrete mathematics</t>
+  </si>
+  <si>
+    <t>19.12.2019</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Kolev</t>
   </si>
   <si>
@@ -78,6 +105,9 @@
     <t>Nikolaevich</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Krishina</t>
   </si>
   <si>
@@ -87,6 +117,9 @@
     <t>Ivanovna</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Maximov</t>
   </si>
   <si>
@@ -96,39 +129,6 @@
     <t>Maximovich</t>
   </si>
   <si>
-    <t>Linear algebra and geometry</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>17.12.2019</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Discrete mathematics</t>
-  </si>
-  <si>
-    <t>19.12.2019</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Group: GR55</t>
   </si>
   <si>
@@ -147,6 +147,12 @@
     <t>25.12.2019</t>
   </si>
   <si>
+    <t>27.12.2019</t>
+  </si>
+  <si>
+    <t>29.12.2019</t>
+  </si>
+  <si>
     <t>Malaeva</t>
   </si>
   <si>
@@ -172,12 +178,6 @@
   </si>
   <si>
     <t>Ileevich</t>
-  </si>
-  <si>
-    <t>27.12.2019</t>
-  </si>
-  <si>
-    <t>29.12.2019</t>
   </si>
 </sst>
 </file>
@@ -353,105 +353,105 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -468,13 +468,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -491,45 +491,45 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>30</v>
@@ -537,232 +537,232 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -887,105 +887,105 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -1025,324 +1025,324 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
